--- a/Deliverable4/Test Cases (Sprint 4).xlsx
+++ b/Deliverable4/Test Cases (Sprint 4).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://paceuniversity-my.sharepoint.com/personal/ss74277n_pace_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{FE3A5B26-1473-C34F-9798-C90512588DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E99E4FD-FACA-934D-A808-9AD446E06797}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{FE3A5B26-1473-C34F-9798-C90512588DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E533DFB6-6032-D44B-B5B1-061B4D1C9CBF}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{CA5AB25C-33AA-2444-A3A5-6477AC0752E7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{CA5AB25C-33AA-2444-A3A5-6477AC0752E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="115">
   <si>
     <t>User Story ID</t>
   </si>
@@ -272,9 +272,6 @@
     <t>Receiving Chat Responses</t>
   </si>
   <si>
-    <t>o ensure that the user can receive responses from other business owners in the chat.</t>
-  </si>
-  <si>
     <t>Other users' responses to the initiated chat are displayed in the chat interface.</t>
   </si>
   <si>
@@ -297,13 +294,101 @@
   </si>
   <si>
     <t>Click on the copy to clipboard option, then attempt to paste the copied text into a text editor or document.</t>
+  </si>
+  <si>
+    <t>Accessing Post Upload Functionality</t>
+  </si>
+  <si>
+    <t>To verify that the user can access the post upload functionality on the website.</t>
+  </si>
+  <si>
+    <t>The user is able to locate and access the feature to upload a post related to news.</t>
+  </si>
+  <si>
+    <t>Navigate to the "Upload Post" section/page.</t>
+  </si>
+  <si>
+    <t>Uploading a Post</t>
+  </si>
+  <si>
+    <t>To ensure that the user can successfully upload a post related to news.</t>
+  </si>
+  <si>
+    <t>The user is able to create a post, attach relevant news content, and upload it to the website.</t>
+  </si>
+  <si>
+    <t>Create a post related to news content.
+Attach relevant news articles or summaries to the post.</t>
+  </si>
+  <si>
+    <t>Accessing Comment Functionality</t>
+  </si>
+  <si>
+    <t>To verify that the user can access the comment functionality on the website.</t>
+  </si>
+  <si>
+    <t>The user is able to locate and access the feature to comment on blog posts created by other users.</t>
+  </si>
+  <si>
+    <t>Navigate to the blog post page where comments are allowed.</t>
+  </si>
+  <si>
+    <t>Posting a Comment</t>
+  </si>
+  <si>
+    <t>To ensure that the user can successfully post a comment on a blog post.</t>
+  </si>
+  <si>
+    <t>The user is able to compose a comment and submit it on the blog post page.</t>
+  </si>
+  <si>
+    <t>Visibility of Comments</t>
+  </si>
+  <si>
+    <t>To ensure that comments posted by other users are visible to the user.</t>
+  </si>
+  <si>
+    <t>The user can view comments posted by other users on the blog post page.</t>
+  </si>
+  <si>
+    <t>Access the blog post page and verify the visibility of comments.</t>
+  </si>
+  <si>
+    <t>To ensure that the user can receive responses from other business owners in the chat.</t>
+  </si>
+  <si>
+    <t>FNDJL-21</t>
+  </si>
+  <si>
+    <t>FNDJL-23</t>
+  </si>
+  <si>
+    <t>FNDJL-24</t>
+  </si>
+  <si>
+    <t>FNDJL-25</t>
+  </si>
+  <si>
+    <t>FNDJL-T39</t>
+  </si>
+  <si>
+    <t>FNDJL-T40</t>
+  </si>
+  <si>
+    <t>FNDJL-T41</t>
+  </si>
+  <si>
+    <t>FNDJL-T42</t>
+  </si>
+  <si>
+    <t>FNDJL-T43</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -329,6 +414,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF0D0D0D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -392,7 +483,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -712,7 +803,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -976,7 +1067,7 @@
         <v>58</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -999,7 +1090,7 @@
         <v>64</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -1059,13 +1150,13 @@
         <v>77</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>70</v>
@@ -1073,43 +1164,144 @@
     </row>
     <row r="16" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-    </row>
-    <row r="18" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-    </row>
-    <row r="19" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-    </row>
-    <row r="20" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-    </row>
-    <row r="21" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
+    <row r="17" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
